--- a/180128_输送机测试V1.1.xlsx
+++ b/180128_输送机测试V1.1.xlsx
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>在松开正反转按钮时候，输送机停止运行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按下HMI提供的正转按钮控制输送机，测试输送机运行状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>如果输送设备长度大于1500，把多余的长度分配给两端，这样更安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下HMI提供的正转按钮控制输送机，测试输送机运行状态。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +795,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,7 +824,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -872,95 +872,95 @@
         <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>3.1</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,31 +976,31 @@
         <v>3.2</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
